--- a/data/dunlop-lang.xlsx
+++ b/data/dunlop-lang.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelgfalk/github/articles/harpur-dunlop-wulatji/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/falk/github/articles/harpur-dunlop-wulatji/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F450DB-8C4E-E94C-8E70-00F9030930FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9026E290-BBA5-FD49-8FA3-09A89A9E34B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14520" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{46DF5F9C-2513-304D-AB7A-4398C1ABBA18}"/>
+    <workbookView xWindow="30300" yWindow="2240" windowWidth="26940" windowHeight="21600" xr2:uid="{46DF5F9C-2513-304D-AB7A-4398C1ABBA18}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,19 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
-  <si>
-    <t>Word</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>Dunlop's definition</t>
-  </si>
-  <si>
-    <t>Dictionary definition</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>gibber-gunyah</t>
   </si>
@@ -128,9 +116,6 @@
     <t>Oak Tree</t>
   </si>
   <si>
-    <t>Equivalent in Wulatji</t>
-  </si>
-  <si>
     <t>turrama</t>
   </si>
   <si>
@@ -138,18 +123,103 @@
   </si>
   <si>
     <t>Makoro</t>
+  </si>
+  <si>
+    <t>Wulatji's text</t>
+  </si>
+  <si>
+    <t>Dunlop's translation</t>
+  </si>
+  <si>
+    <t>kaNiyn ~ KaNang *freshwater eel*</t>
+  </si>
+  <si>
+    <t>kuyung ~ kuyang *camp, camp fire; also town*</t>
+  </si>
+  <si>
+    <t>TaRama *war boomerang*</t>
+  </si>
+  <si>
+    <t>pirampu *waddy; club (Wafer)*</t>
+  </si>
+  <si>
+    <t>walapi ~ walapay *wallaby*; paNTarr *kangaroo*</t>
+  </si>
+  <si>
+    <t>makurr *fish*</t>
+  </si>
+  <si>
+    <t>Other equivalents</t>
+  </si>
+  <si>
+    <t>HRLM equivalents</t>
+  </si>
+  <si>
+    <t>Dunlop's definition (1) newspaper</t>
+  </si>
+  <si>
+    <t>kiR[i]ka *white honey*</t>
+  </si>
+  <si>
+    <t>Nakang *native bee*</t>
+  </si>
+  <si>
+    <t>karakaNpa *place of swamp-oaks*</t>
+  </si>
+  <si>
+    <t>giba *stone or rock*, gunya *hut* (Sydney)</t>
+  </si>
+  <si>
+    <t>wulaba *rock wallaby* (Sydney)</t>
+  </si>
+  <si>
+    <t>magura *fish* (Sydney)</t>
+  </si>
+  <si>
+    <t>guliman *coolamon* (Gamilaraay)</t>
+  </si>
+  <si>
+    <t>kokein</t>
+  </si>
+  <si>
+    <t>paTu, kukuyn *fresh water*</t>
+  </si>
+  <si>
+    <t>wimbi</t>
+  </si>
+  <si>
+    <t>wimpi *vessel made from the knots of trees and used as baskets or bowls*</t>
+  </si>
+  <si>
+    <t>mura ke-en</t>
+  </si>
+  <si>
+    <t>marr[a]kiyn *young maiden, woman, girl*</t>
+  </si>
+  <si>
+    <t>djirul *mullet* (Darkinyung)</t>
+  </si>
+  <si>
+    <t>wungawunga *Wonga pigeon* (Sydney); wangawanga *Wonga pigeon* (Darkinyung)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -173,8 +243,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,157 +582,223 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F09BA7B-07D2-D640-8825-3A6613F87EEC}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.1640625" customWidth="1"/>
+    <col min="5" max="5" width="70.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/data/dunlop-lang.xlsx
+++ b/data/dunlop-lang.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/falk/github/articles/harpur-dunlop-wulatji/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9026E290-BBA5-FD49-8FA3-09A89A9E34B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760D90E5-2341-5645-BB3A-05900F6DAA1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30300" yWindow="2240" windowWidth="26940" windowHeight="21600" xr2:uid="{46DF5F9C-2513-304D-AB7A-4398C1ABBA18}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17440" xr2:uid="{46DF5F9C-2513-304D-AB7A-4398C1ABBA18}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -155,9 +155,6 @@
     <t>HRLM equivalents</t>
   </si>
   <si>
-    <t>Dunlop's definition (1) newspaper</t>
-  </si>
-  <si>
     <t>kiR[i]ka *white honey*</t>
   </si>
   <si>
@@ -201,6 +198,9 @@
   </si>
   <si>
     <t>wungawunga *Wonga pigeon* (Sydney); wangawanga *Wonga pigeon* (Darkinyung)</t>
+  </si>
+  <si>
+    <t>Dunlop's definition</t>
   </si>
 </sst>
 </file>
@@ -583,7 +583,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -603,7 +603,7 @@
         <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>38</v>
@@ -623,7 +623,7 @@
         <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -662,7 +662,7 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -676,7 +676,7 @@
         <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -693,7 +693,7 @@
         <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -715,7 +715,7 @@
         <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -723,10 +723,10 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
         <v>51</v>
-      </c>
-      <c r="D10" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -734,13 +734,13 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -756,13 +756,13 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
         <v>49</v>
       </c>
-      <c r="D13" t="s">
-        <v>50</v>
-      </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -776,7 +776,7 @@
         <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -787,7 +787,7 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -798,7 +798,7 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/data/dunlop-lang.xlsx
+++ b/data/dunlop-lang.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/falk/github/articles/harpur-dunlop-wulatji/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760D90E5-2341-5645-BB3A-05900F6DAA1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961E2D26-E672-1640-9E28-B0FA712E356B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17440" xr2:uid="{46DF5F9C-2513-304D-AB7A-4398C1ABBA18}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
   <si>
     <t>gibber-gunyah</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>Dunlop's definition</t>
+  </si>
+  <si>
+    <t>[The etymology of  *lubra* is unknown; possibly from a Tasmanian language] (Dixon et al)</t>
   </si>
 </sst>
 </file>
@@ -583,7 +586,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -728,6 +731,9 @@
       <c r="D10" t="s">
         <v>51</v>
       </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
